--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.82229999999999</v>
+        <v>-20.83509999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.76130000000001</v>
+        <v>-22.828</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.91750000000001</v>
+        <v>-21.96180000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>5.144699999999999</v>
+        <v>4.647400000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.28180000000001</v>
+        <v>-22.31510000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4322</v>
+        <v>5.356699999999997</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.676399999999998</v>
+        <v>4.5661</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.0556</v>
+        <v>17.9577</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.68250000000002</v>
+        <v>16.76670000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.99669999999999</v>
+        <v>16.89490000000001</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.979099999999997</v>
+        <v>5.260499999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.95440000000001</v>
+        <v>-21.96100000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.61959999999999</v>
+        <v>16.72909999999999</v>
       </c>
     </row>
     <row r="17">
@@ -763,15 +763,15 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.32219999999999</v>
+        <v>16.338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-23.18800000000001</v>
+        <v>-23.1724</v>
       </c>
       <c r="B20" t="n">
-        <v>4.799899999999997</v>
+        <v>5.127599999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,15 +780,15 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.5492</v>
+        <v>16.5236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.2734</v>
+        <v>-22.3231</v>
       </c>
       <c r="B21" t="n">
-        <v>5.360899999999999</v>
+        <v>5.295699999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.17870000000001</v>
+        <v>10.1268</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.72610000000001</v>
+        <v>16.75970000000001</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.132800000000005</v>
+        <v>9.050800000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.2786</v>
+        <v>-22.19989999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7037</v>
+        <v>-21.68610000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.025000000000002</v>
+        <v>5.248000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.91500000000001</v>
+        <v>-21.81170000000002</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.31500000000001</v>
+        <v>-21.3866</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.572900000000006</v>
+        <v>9.535200000000009</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.9191</v>
+        <v>15.7712</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.18369999999999</v>
+        <v>-19.3595</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0237</v>
+        <v>10.2049</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.7693</v>
+        <v>5.603099999999999</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.33170000000002</v>
+        <v>17.25030000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.995199999999998</v>
+        <v>5.025000000000005</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.708800000000002</v>
+        <v>4.850900000000007</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.12190000000001</v>
+        <v>-22.08680000000002</v>
       </c>
       <c r="B46" t="n">
-        <v>5.093100000000002</v>
+        <v>4.827800000000005</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.67459999999999</v>
+        <v>16.83749999999998</v>
       </c>
     </row>
     <row r="47">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.199799999999999</v>
+        <v>4.538399999999998</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,15 +1290,15 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5536</v>
+        <v>16.6055</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.2183</v>
+        <v>-22.22939999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.347699999999999</v>
+        <v>5.292999999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.09609999999999</v>
+        <v>-22.06029999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.72680000000001</v>
+        <v>-22.80070000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.024699999999996</v>
+        <v>5.051299999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.33050000000001</v>
+        <v>-22.3229</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.19010000000001</v>
+        <v>-22.27980000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.506600000000003</v>
+        <v>5.271399999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.512</v>
+        <v>-21.4836</v>
       </c>
       <c r="B66" t="n">
-        <v>4.900299999999999</v>
+        <v>4.778099999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.594999999999996</v>
+        <v>5.409199999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.55489999999998</v>
+        <v>-19.37339999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.95339999999998</v>
+        <v>-21.88729999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.70599999999999</v>
+        <v>16.63869999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.19239999999998</v>
+        <v>-20.17219999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.851000000000006</v>
+        <v>9.599900000000009</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.500899999999998</v>
+        <v>5.470600000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.851699999999999</v>
+        <v>5.106399999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.37890000000001</v>
+        <v>-21.35790000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>5.178399999999995</v>
+        <v>5.220999999999993</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.00030000000001</v>
+        <v>18.03110000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.851599999999999</v>
+        <v>6.044399999999999</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.7791</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="98">
@@ -2123,12 +2123,12 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.6349</v>
+        <v>16.66939999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.3738</v>
+        <v>-22.21829999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
